--- a/dna-methylation/scripts/develop/betas/plot/cpgs.xlsx
+++ b/dna-methylation/scripts/develop/betas/plot/cpgs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Google Drive\mlmg\draft\tables\intersection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\dna-methylation\dna-methylation\scripts\develop\betas\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4755473-7CD7-4296-BAE1-70BD176BE2CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i" sheetId="1" r:id="rId1"/>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,6 +221,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -255,6 +273,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,16 +465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -467,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -481,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -495,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -509,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -520,10 +555,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/dna-methylation/scripts/develop/betas/plot/cpgs.xlsx
+++ b/dna-methylation/scripts/develop/betas/plot/cpgs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\dna-methylation\dna-methylation\scripts\develop\betas\plot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aaron\Bio\dna-methylation\dna-methylation\scripts\develop\betas\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4755473-7CD7-4296-BAE1-70BD176BE2CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="i" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>cpg</t>
   </si>
@@ -28,49 +27,76 @@
     <t>gene</t>
   </si>
   <si>
-    <t>cg17076667</t>
-  </si>
-  <si>
-    <t>cg14079463</t>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>cg01727145</t>
+  </si>
+  <si>
+    <t>SPEG</t>
+  </si>
+  <si>
+    <t>cg00134667</t>
+  </si>
+  <si>
+    <t>CACNA1H</t>
   </si>
   <si>
     <t>cg01620164</t>
   </si>
   <si>
-    <t>cg27615582</t>
-  </si>
-  <si>
-    <t>cg23928726</t>
-  </si>
-  <si>
-    <t>cg04580344</t>
-  </si>
-  <si>
-    <t>BAG3</t>
-  </si>
-  <si>
-    <t>C6orf174</t>
-  </si>
-  <si>
     <t>FIGN</t>
   </si>
   <si>
-    <t>PRR4</t>
-  </si>
-  <si>
-    <t>PEX10</t>
-  </si>
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>end</t>
+    <t>cg05946623</t>
+  </si>
+  <si>
+    <t>CDH8</t>
+  </si>
+  <si>
+    <t>cg03792653</t>
+  </si>
+  <si>
+    <t>RPRD1B;KIAA0406</t>
+  </si>
+  <si>
+    <t>cg10917602</t>
+  </si>
+  <si>
+    <t>HSD3B7</t>
+  </si>
+  <si>
+    <t>cg00664406</t>
+  </si>
+  <si>
+    <t>GRM2</t>
+  </si>
+  <si>
+    <t>cg15078122</t>
+  </si>
+  <si>
+    <t>MYBPC2</t>
+  </si>
+  <si>
+    <t>cg01713950</t>
+  </si>
+  <si>
+    <t>RCC2</t>
+  </si>
+  <si>
+    <t>cg09236176</t>
+  </si>
+  <si>
+    <t>HRNBP3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,23 +247,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -273,23 +282,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,16 +457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,94 +474,150 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0.2</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0.3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0.4</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0.4</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
